--- a/downloaded_files/EPES405_Lecture-35425.xlsx
+++ b/downloaded_files/EPES405_Lecture-35425.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,12 @@
   </x:si>
   <x:si>
     <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1220236</x:t>
@@ -254,7 +260,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +560,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -564,7 +570,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.190625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -737,11 +743,9 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="D5" s="2" t="s"/>
       <x:c r="E5" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -764,16 +768,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,16 +800,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,16 +832,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.7422077893</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,16 +864,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.7422077893</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,16 +896,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,16 +928,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,16 +960,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -988,16 +992,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1018,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.4185952894</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
